--- a/platform-admin-web/src/main/resources/import.xlsx
+++ b/platform-admin-web/src/main/resources/import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Mac 上的 ch-hui\Njxzc\springboot-dubbox\platform-admin-web\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,6 @@
     <t>考生号</t>
   </si>
   <si>
-    <t>录入号</t>
-  </si>
-  <si>
     <t>学号</t>
   </si>
   <si>
@@ -105,6 +102,10 @@
   </si>
   <si>
     <t>示例人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录取号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -129,6 +130,12 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -167,12 +174,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1366,7 +1374,7 @@
   <dimension ref="A1:IV2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1389,94 +1397,94 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3">
         <v>20113797</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="K2" s="3">
         <v>2016</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="3">
         <v>888888</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" s="3">
         <v>13800000000</v>
